--- a/sample.xlsx
+++ b/sample.xlsx
@@ -34,22 +34,22 @@
     <t>dy</t>
   </si>
   <si>
-    <t>4.00000000000000</t>
-  </si>
-  <si>
-    <t>8.00000000000000</t>
-  </si>
-  <si>
-    <t>27.0000000000000</t>
-  </si>
-  <si>
-    <t>0.683732351807086</t>
-  </si>
-  <si>
-    <t>1.63400113697347</t>
-  </si>
-  <si>
-    <t>80.2213386184093</t>
+    <t>0.500000000000000</t>
+  </si>
+  <si>
+    <t>0.222222222222222</t>
+  </si>
+  <si>
+    <t>0.333333333333333</t>
+  </si>
+  <si>
+    <t>0.103077640640442</t>
+  </si>
+  <si>
+    <t>0.0316444583159909</t>
+  </si>
+  <si>
+    <t>0.496903994999953</t>
   </si>
 </sst>
 </file>
